--- a/biology/Botanique/Scaevola_plumieri/Scaevola_plumieri.xlsx
+++ b/biology/Botanique/Scaevola_plumieri/Scaevola_plumieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scaevola plumieri est un petit arbuste de la famille des Goodeniaceae, originaire du sud-ouest des États-Unis (de la Floride au Texas). Haut de 100 cm, c'est un buisson au feuillage persistant aux feuilles succulentes qui produit des fleurs blanches et des baies rondes, noires.
 Il est planté sur les dunes de sable pour fixer le sol.
